--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2234296.088037591</v>
+        <v>2232089.994631154</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604728</v>
+        <v>7094780.682604726</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>14.0301000117425</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208644</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>69.9268023686671</v>
       </c>
       <c r="S2" t="n">
-        <v>74.45890161288492</v>
+        <v>180.0198424776875</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>54.370860230921</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>56.85412035215493</v>
       </c>
       <c r="S3" t="n">
         <v>159.0353604252219</v>
@@ -792,10 +792,10 @@
         <v>197.4201388450818</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8965846405547</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>230.2913065108932</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>136.4847099166902</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.28311657924</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255606</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.74529340410537</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5064544755703</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>25.77351865445844</v>
+        <v>64.63750051145696</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>9.76486346740683</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>124.1699884042477</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.91389206607241</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>338.745920786966</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>282.3599985570821</v>
+        <v>164.6089462561956</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1661,7 +1661,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1819,7 +1819,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>270.0697021486467</v>
+        <v>270.0697021486463</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>22.45511406853569</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>143.0812453977544</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>74.75769145492352</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>86.53247416729695</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2296,10 +2296,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>87.22506181228459</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192024</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>43.54171107304236</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>10.4083918824599</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>28.87187436015461</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>156.9637428177467</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>26.61423323933179</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>107.6184934325533</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3284,7 +3284,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880162</v>
+        <v>6.081513486880183</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213005</v>
+        <v>73.69234550213007</v>
       </c>
       <c r="T35" t="n">
         <v>168.4225538535744</v>
@@ -3430,19 +3430,19 @@
         <v>113.1200567321666</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G37" t="n">
         <v>130.5303919729824</v>
       </c>
       <c r="H37" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379231</v>
+        <v>60.85700412379232</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400155</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>154.2736090453961</v>
@@ -3484,13 +3484,13 @@
         <v>216.6422270377822</v>
       </c>
       <c r="W37" t="n">
-        <v>251.0275820505452</v>
+        <v>140.0382005586401</v>
       </c>
       <c r="X37" t="n">
         <v>190.2142391029914</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.2676986592764</v>
+        <v>183.089237066049</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774352</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E38" t="n">
-        <v>346.4349537862159</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556656</v>
+        <v>371.3806294556661</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880112</v>
+        <v>6.081513486880198</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213002</v>
+        <v>73.69234550213008</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V38" t="n">
         <v>292.2568421840891</v>
       </c>
       <c r="W38" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924232</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>82.12429140109219</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368854</v>
+        <v>78.92986640580922</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5303919729824</v>
+        <v>130.5303919729825</v>
       </c>
       <c r="H40" t="n">
         <v>109.259598628275</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379227</v>
+        <v>60.85700412379234</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400149</v>
+        <v>53.43673638400158</v>
       </c>
       <c r="S40" t="n">
         <v>154.2736090453961</v>
@@ -3715,7 +3715,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U40" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V40" t="n">
         <v>216.6422270377822</v>
@@ -3724,7 +3724,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y40" t="n">
         <v>183.089237066049</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C41" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E41" t="n">
-        <v>346.4349537862159</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F41" t="n">
-        <v>371.3806294556656</v>
+        <v>371.3806294556661</v>
       </c>
       <c r="G41" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H41" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880127</v>
+        <v>6.081513486880198</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213002</v>
+        <v>73.69234550213008</v>
       </c>
       <c r="T41" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U41" t="n">
         <v>215.4997556728562</v>
@@ -3800,13 +3800,13 @@
         <v>292.2568421840891</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X41" t="n">
-        <v>334.2356843924232</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C43" t="n">
-        <v>131.751404812582</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F43" t="n">
-        <v>60.29851832539522</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729824</v>
+        <v>130.5303919729825</v>
       </c>
       <c r="H43" t="n">
-        <v>109.259598628275</v>
+        <v>77.25091867356046</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379227</v>
+        <v>60.85700412379234</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400149</v>
+        <v>53.43673638400158</v>
       </c>
       <c r="S43" t="n">
         <v>154.2736090453961</v>
@@ -3952,7 +3952,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U43" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V43" t="n">
         <v>216.6422270377822</v>
@@ -3961,7 +3961,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y43" t="n">
         <v>183.089237066049</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C44" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D44" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E44" t="n">
-        <v>346.4349537862159</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556656</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G44" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H44" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880112</v>
+        <v>6.081513486880198</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213002</v>
+        <v>73.69234550213008</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V44" t="n">
-        <v>292.2568421840895</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W44" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X44" t="n">
-        <v>334.2356843924232</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y44" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.3365638958915</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>131.751404812582</v>
+        <v>113.3407985648155</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321665</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E46" t="n">
-        <v>110.9385463605233</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368854</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G46" t="n">
-        <v>26.96127822086907</v>
+        <v>130.5303919729825</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379234</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400149</v>
+        <v>53.43673638400158</v>
       </c>
       <c r="S46" t="n">
         <v>154.2736090453961</v>
@@ -4189,7 +4189,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U46" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V46" t="n">
         <v>216.6422270377822</v>
@@ -4198,7 +4198,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y46" t="n">
         <v>183.089237066049</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636.4584396775601</v>
+        <v>438.3375907383107</v>
       </c>
       <c r="C2" t="n">
-        <v>636.4584396775601</v>
+        <v>69.37507379789902</v>
       </c>
       <c r="D2" t="n">
-        <v>636.4584396775601</v>
+        <v>69.37507379789902</v>
       </c>
       <c r="E2" t="n">
-        <v>636.4584396775601</v>
+        <v>69.37507379789902</v>
       </c>
       <c r="F2" t="n">
-        <v>225.4725348879525</v>
+        <v>62.42957304869554</v>
       </c>
       <c r="G2" t="n">
-        <v>211.3007166942733</v>
+        <v>48.25775485501626</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3007166942733</v>
+        <v>48.25775485501626</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501627</v>
+        <v>48.25775485501626</v>
       </c>
       <c r="J2" t="n">
         <v>143.3613405244778</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293491</v>
+        <v>406.6417666293492</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024621</v>
+        <v>785.5410436024622</v>
       </c>
       <c r="M2" t="n">
         <v>1223.746040782768</v>
@@ -4346,34 +4346,34 @@
         <v>2015.885456671742</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110675</v>
+        <v>2286.722307110674</v>
       </c>
       <c r="Q2" t="n">
         <v>2412.887742750813</v>
       </c>
       <c r="R2" t="n">
-        <v>2412.887742750813</v>
+        <v>2342.254609045088</v>
       </c>
       <c r="S2" t="n">
-        <v>2337.676731020626</v>
+        <v>2160.416384320151</v>
       </c>
       <c r="T2" t="n">
-        <v>2337.676731020626</v>
+        <v>1940.694284428201</v>
       </c>
       <c r="U2" t="n">
-        <v>2083.895072528137</v>
+        <v>1885.774223588887</v>
       </c>
       <c r="V2" t="n">
-        <v>1752.832185184566</v>
+        <v>1554.711336245316</v>
       </c>
       <c r="W2" t="n">
-        <v>1400.063529914452</v>
+        <v>1201.942680975202</v>
       </c>
       <c r="X2" t="n">
-        <v>1026.597771653372</v>
+        <v>828.4769227141225</v>
       </c>
       <c r="Y2" t="n">
-        <v>636.4584396775601</v>
+        <v>438.3375907383107</v>
       </c>
     </row>
     <row r="3">
@@ -4395,34 +4395,34 @@
         <v>439.5617835873702</v>
       </c>
       <c r="F3" t="n">
-        <v>293.0272256142552</v>
+        <v>293.0272256142551</v>
       </c>
       <c r="G3" t="n">
         <v>154.984199282109</v>
       </c>
       <c r="H3" t="n">
-        <v>48.25775485501627</v>
+        <v>48.25775485501626</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501627</v>
+        <v>48.25775485501626</v>
       </c>
       <c r="J3" t="n">
         <v>111.2074192719582</v>
       </c>
       <c r="K3" t="n">
-        <v>345.4192653503517</v>
+        <v>345.4192653503516</v>
       </c>
       <c r="L3" t="n">
         <v>721.7503922265946</v>
       </c>
       <c r="M3" t="n">
-        <v>1017.08641166434</v>
+        <v>1212.890288538965</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987184</v>
+        <v>1732.736209861809</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602208</v>
+        <v>1946.074112602207</v>
       </c>
       <c r="P3" t="n">
         <v>2257.443393642317</v>
@@ -4431,28 +4431,28 @@
         <v>2412.887742750813</v>
       </c>
       <c r="R3" t="n">
-        <v>2412.887742750813</v>
+        <v>2355.459338354697</v>
       </c>
       <c r="S3" t="n">
-        <v>2252.245964543518</v>
+        <v>2194.817560147402</v>
       </c>
       <c r="T3" t="n">
-        <v>2052.83168288182</v>
+        <v>1995.403278485703</v>
       </c>
       <c r="U3" t="n">
-        <v>1824.653314558027</v>
+        <v>1995.403278485703</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.035833233892</v>
+        <v>1760.25117025396</v>
       </c>
       <c r="W3" t="n">
-        <v>1337.798476505691</v>
+        <v>1506.013813525759</v>
       </c>
       <c r="X3" t="n">
-        <v>1129.946976300158</v>
+        <v>1298.162313320226</v>
       </c>
       <c r="Y3" t="n">
-        <v>922.186677535204</v>
+        <v>1090.402014555272</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388.362245486054</v>
+        <v>631.0407786978476</v>
       </c>
       <c r="C4" t="n">
-        <v>388.362245486054</v>
+        <v>631.0407786978476</v>
       </c>
       <c r="D4" t="n">
-        <v>388.362245486054</v>
+        <v>480.9241392855118</v>
       </c>
       <c r="E4" t="n">
-        <v>388.362245486054</v>
+        <v>333.0110457031187</v>
       </c>
       <c r="F4" t="n">
-        <v>241.4722979881436</v>
+        <v>186.1210982052084</v>
       </c>
       <c r="G4" t="n">
-        <v>241.4722979881436</v>
+        <v>48.25775485501626</v>
       </c>
       <c r="H4" t="n">
-        <v>241.4722979881436</v>
+        <v>48.25775485501626</v>
       </c>
       <c r="I4" t="n">
-        <v>101.7923822515375</v>
+        <v>48.25775485501626</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501627</v>
+        <v>48.25775485501626</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461012</v>
+        <v>91.87143294461009</v>
       </c>
       <c r="L4" t="n">
         <v>203.2083598384343</v>
@@ -4507,31 +4507,31 @@
         <v>631.0407786978476</v>
       </c>
       <c r="Q4" t="n">
-        <v>616.146542936125</v>
+        <v>631.0407786978476</v>
       </c>
       <c r="R4" t="n">
-        <v>616.146542936125</v>
+        <v>631.0407786978476</v>
       </c>
       <c r="S4" t="n">
-        <v>616.146542936125</v>
+        <v>631.0407786978476</v>
       </c>
       <c r="T4" t="n">
-        <v>388.362245486054</v>
+        <v>631.0407786978476</v>
       </c>
       <c r="U4" t="n">
-        <v>388.362245486054</v>
+        <v>631.0407786978476</v>
       </c>
       <c r="V4" t="n">
-        <v>388.362245486054</v>
+        <v>631.0407786978476</v>
       </c>
       <c r="W4" t="n">
-        <v>388.362245486054</v>
+        <v>631.0407786978476</v>
       </c>
       <c r="X4" t="n">
-        <v>388.362245486054</v>
+        <v>631.0407786978476</v>
       </c>
       <c r="Y4" t="n">
-        <v>388.362245486054</v>
+        <v>631.0407786978476</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>609.3508327416157</v>
+        <v>1284.970060705655</v>
       </c>
       <c r="C5" t="n">
-        <v>240.388315801204</v>
+        <v>916.0075437652436</v>
       </c>
       <c r="D5" t="n">
-        <v>240.388315801204</v>
+        <v>916.0075437652436</v>
       </c>
       <c r="E5" t="n">
-        <v>240.388315801204</v>
+        <v>530.2192911669993</v>
       </c>
       <c r="F5" t="n">
-        <v>233.4428150520005</v>
+        <v>119.2333863773917</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y5" t="n">
-        <v>995.9506728057374</v>
+        <v>1284.970060705655</v>
       </c>
     </row>
     <row r="6">
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.0202652891861</v>
+        <v>63.80648027229054</v>
       </c>
       <c r="C7" t="n">
-        <v>348.0202652891861</v>
+        <v>63.80648027229054</v>
       </c>
       <c r="D7" t="n">
-        <v>348.0202652891861</v>
+        <v>63.80648027229054</v>
       </c>
       <c r="E7" t="n">
-        <v>348.0202652891861</v>
+        <v>63.80648027229054</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>63.80648027229054</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>63.80648027229054</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>348.0202652891861</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X7" t="n">
-        <v>348.0202652891861</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.0202652891861</v>
+        <v>245.4549451025302</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2655.821927315119</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2655.821927315119</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2655.821927315119</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2402.06014195321</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>2402.06014195321</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>2402.06014195321</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,13 +5042,13 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
         <v>2979.169639353395</v>
@@ -5066,25 +5066,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5121,49 +5121,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.5976972681534</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C13" t="n">
-        <v>559.5976972681534</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D13" t="n">
-        <v>409.4810578558177</v>
+        <v>557.3941514382109</v>
       </c>
       <c r="E13" t="n">
         <v>409.4810578558177</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5224,25 +5224,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1479.445462176901</v>
+        <v>1568.305187789184</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.445462176901</v>
+        <v>1568.305187789184</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.028292139941</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="X13" t="n">
-        <v>962.0387412419233</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.2461620983931</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5282,22 +5282,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O14" t="n">
-        <v>3517.878731871643</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4231.233819318589</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,13 +5309,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5434,7 +5434,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442064</v>
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>425.1871727453687</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1079.910504880668</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1530.944718129077</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2064.476622801002</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3044.228895027648</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,16 +5543,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>974.4083489326728</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>951.7264155301115</v>
       </c>
       <c r="D19" t="n">
         <v>801.6097761177758</v>
@@ -5671,7 +5671,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1530.300614186275</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1530.300614186275</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>1530.300614186275</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W19" t="n">
-        <v>1530.300614186275</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X19" t="n">
-        <v>1302.311063288258</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="Y19" t="n">
-        <v>1302.311063288258</v>
+        <v>1156.056813762912</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089261</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5832,10 +5832,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.0738540998324</v>
+        <v>725.2129316856143</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>725.2129316856143</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>575.0962922732786</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>427.1831986908854</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>280.293251192975</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783404</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413798</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433625</v>
+        <v>1127.653975659384</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998324</v>
+        <v>906.861396515854</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5990,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844495</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>481.696890485835</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>481.696890485835</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>331.5802510734992</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>183.6671574911061</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
         <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.7880996267</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208129</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838523</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>481.696890485835</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>481.696890485835</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6215,34 +6215,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>444.6760255082871</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1099.399357643587</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1963.918173296941</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2497.450077968866</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3044.228895027648</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>550.3214813792652</v>
+        <v>307.2453974100819</v>
       </c>
       <c r="C28" t="n">
-        <v>550.3214813792652</v>
+        <v>307.2453974100819</v>
       </c>
       <c r="D28" t="n">
-        <v>400.2048419669295</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>252.2917483845366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>252.2917483845366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>252.2917483845366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>106.0745616023943</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6385,10 +6385,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6421,13 +6421,13 @@
         <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>999.1036114208126</v>
+        <v>709.6864413838517</v>
       </c>
       <c r="X28" t="n">
-        <v>771.1140605227953</v>
+        <v>709.6864413838517</v>
       </c>
       <c r="Y28" t="n">
-        <v>550.3214813792652</v>
+        <v>488.8938622403216</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O29" t="n">
-        <v>3517.878731871643</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P29" t="n">
-        <v>4231.233819318589</v>
+        <v>4302.335344088783</v>
       </c>
       <c r="Q29" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6546,7 +6546,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>241.7782212305365</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C31" t="n">
-        <v>241.7782212305365</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>241.7782212305365</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>241.7782212305365</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305365</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305365</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6640,31 +6640,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.179956650002</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T31" t="n">
-        <v>1705.413341219528</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U31" t="n">
-        <v>1416.310474345171</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V31" t="n">
-        <v>1161.625986139284</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W31" t="n">
-        <v>872.2088161023237</v>
+        <v>811.5418683145534</v>
       </c>
       <c r="X31" t="n">
-        <v>644.2192652043063</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="Y31" t="n">
-        <v>423.4266860607762</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6704,46 +6704,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O32" t="n">
-        <v>3517.878731871643</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P32" t="n">
-        <v>4231.233819318589</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>361.822894557956</v>
+        <v>680.5797464134956</v>
       </c>
       <c r="C34" t="n">
-        <v>192.8867116300491</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="D34" t="n">
-        <v>192.8867116300491</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E34" t="n">
-        <v>192.8867116300491</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F34" t="n">
-        <v>192.8867116300491</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
         <v>192.8867116300491</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1757.807459940461</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1536.040844509987</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U34" t="n">
-        <v>1246.93797763563</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>992.2534894297431</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>992.2534894297431</v>
+        <v>901.3723255570258</v>
       </c>
       <c r="X34" t="n">
-        <v>764.2639385317258</v>
+        <v>901.3723255570258</v>
       </c>
       <c r="Y34" t="n">
-        <v>543.4713593881957</v>
+        <v>680.5797464134956</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D35" t="n">
         <v>1456.742661151839</v>
       </c>
       <c r="E35" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529687</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424559</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571334</v>
+        <v>90.72827659571337</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967277</v>
@@ -6938,22 +6938,22 @@
         <v>440.8701136590512</v>
       </c>
       <c r="K35" t="n">
-        <v>774.6894873488977</v>
+        <v>1095.593445794351</v>
       </c>
       <c r="L35" t="n">
-        <v>1445.872985861814</v>
+        <v>1546.62765904276</v>
       </c>
       <c r="M35" t="n">
-        <v>1979.404890533739</v>
+        <v>2080.159563714684</v>
       </c>
       <c r="N35" t="n">
-        <v>2959.157162760386</v>
+        <v>2626.938380773467</v>
       </c>
       <c r="O35" t="n">
-        <v>3462.129633639723</v>
+        <v>3129.910851652804</v>
       </c>
       <c r="P35" t="n">
-        <v>3856.903999996901</v>
+        <v>3843.26593909975</v>
       </c>
       <c r="Q35" t="n">
         <v>4105.190361752583</v>
@@ -6971,16 +6971,16 @@
         <v>3767.029658702264</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W35" t="n">
         <v>3154.906027777561</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y35" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>635.6140773865397</v>
+        <v>748.3459758402107</v>
       </c>
       <c r="C37" t="n">
-        <v>502.5318503031235</v>
+        <v>615.2637487567945</v>
       </c>
       <c r="D37" t="n">
-        <v>388.2691667352786</v>
+        <v>501.0010651889494</v>
       </c>
       <c r="E37" t="n">
-        <v>388.2691667352786</v>
+        <v>388.941927451047</v>
       </c>
       <c r="F37" t="n">
-        <v>388.2691667352786</v>
+        <v>277.9059357976273</v>
       </c>
       <c r="G37" t="n">
-        <v>256.4202859544882</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="H37" t="n">
         <v>146.0570550168367</v>
@@ -7096,10 +7096,10 @@
         <v>164.8484282497936</v>
       </c>
       <c r="K37" t="n">
-        <v>403.976073321855</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935365</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7108,7 +7108,7 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O37" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P37" t="n">
         <v>2113.740704045764</v>
@@ -7117,28 +7117,28 @@
         <v>2226.491462321464</v>
       </c>
       <c r="R37" t="n">
-        <v>2172.514960923483</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="S37" t="n">
-        <v>2016.6830325948</v>
+        <v>2070.659533992781</v>
       </c>
       <c r="T37" t="n">
-        <v>1830.770373008817</v>
+        <v>1884.746874406798</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.521461978951</v>
+        <v>1631.497963376932</v>
       </c>
       <c r="V37" t="n">
-        <v>1358.690929617555</v>
+        <v>1412.667431015536</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.127715425085</v>
+        <v>1271.214703178526</v>
       </c>
       <c r="X37" t="n">
-        <v>912.992120371558</v>
+        <v>1079.079108124999</v>
       </c>
       <c r="Y37" t="n">
-        <v>781.4085863722888</v>
+        <v>894.1404848259597</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D38" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E38" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398086</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529681</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424556</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571328</v>
+        <v>90.7282765957134</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J38" t="n">
         <v>440.8701136590512</v>
       </c>
       <c r="K38" t="n">
-        <v>774.6894873488977</v>
+        <v>1095.593445794351</v>
       </c>
       <c r="L38" t="n">
-        <v>1225.723700597307</v>
+        <v>1546.62765904276</v>
       </c>
       <c r="M38" t="n">
-        <v>1759.255605269231</v>
+        <v>2080.159563714684</v>
       </c>
       <c r="N38" t="n">
-        <v>2739.007877495878</v>
+        <v>2626.938380773467</v>
       </c>
       <c r="O38" t="n">
-        <v>3241.980348375215</v>
+        <v>3129.910851652804</v>
       </c>
       <c r="P38" t="n">
-        <v>3856.9039999969</v>
+        <v>3843.26593909975</v>
       </c>
       <c r="Q38" t="n">
-        <v>4105.190361752582</v>
+        <v>4105.190361752584</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702265</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777562</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J39" t="n">
         <v>178.2626031702901</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.258988086771</v>
+        <v>582.2589880867695</v>
       </c>
       <c r="C40" t="n">
-        <v>582.258988086771</v>
+        <v>582.2589880867695</v>
       </c>
       <c r="D40" t="n">
-        <v>499.305158388698</v>
+        <v>467.9963045189244</v>
       </c>
       <c r="E40" t="n">
-        <v>499.305158388698</v>
+        <v>467.9963045189244</v>
       </c>
       <c r="F40" t="n">
-        <v>388.2691667352784</v>
+        <v>388.2691667352787</v>
       </c>
       <c r="G40" t="n">
-        <v>256.4202859544881</v>
+        <v>256.4202859544883</v>
       </c>
       <c r="H40" t="n">
-        <v>146.0570550168367</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218554</v>
+        <v>403.976073321855</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935365</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
@@ -7345,37 +7345,37 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q40" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.683032594801</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
-        <v>1830.770373008818</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.521461978952</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V40" t="n">
-        <v>1358.690929617556</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.127715425086</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X40" t="n">
-        <v>912.9921203715594</v>
+        <v>912.992120371558</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.0534970725199</v>
+        <v>728.0534970725186</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D41" t="n">
         <v>1456.742661151839</v>
       </c>
       <c r="E41" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398086</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529681</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424556</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571328</v>
+        <v>90.7282765957134</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J41" t="n">
-        <v>440.8701136590512</v>
+        <v>300.5491092028277</v>
       </c>
       <c r="K41" t="n">
-        <v>774.6894873488977</v>
+        <v>634.3684828926741</v>
       </c>
       <c r="L41" t="n">
-        <v>1225.723700597307</v>
+        <v>1498.887298546029</v>
       </c>
       <c r="M41" t="n">
-        <v>1759.255605269231</v>
+        <v>2477.437601375857</v>
       </c>
       <c r="N41" t="n">
-        <v>2430.384600917312</v>
+        <v>3024.21641843464</v>
       </c>
       <c r="O41" t="n">
-        <v>2933.357071796649</v>
+        <v>3527.188889313977</v>
       </c>
       <c r="P41" t="n">
-        <v>3646.712159243594</v>
+        <v>3921.963255671155</v>
       </c>
       <c r="Q41" t="n">
-        <v>4105.190361752582</v>
+        <v>4170.249617426837</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702265</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777562</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J42" t="n">
         <v>178.2626031702901</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.2589880867706</v>
+        <v>582.2589880867691</v>
       </c>
       <c r="C43" t="n">
-        <v>449.1767610033544</v>
+        <v>582.2589880867691</v>
       </c>
       <c r="D43" t="n">
-        <v>449.1767610033544</v>
+        <v>467.996304518924</v>
       </c>
       <c r="E43" t="n">
-        <v>449.1767610033544</v>
+        <v>355.9371667810216</v>
       </c>
       <c r="F43" t="n">
-        <v>388.2691667352784</v>
+        <v>355.9371667810216</v>
       </c>
       <c r="G43" t="n">
-        <v>256.4202859544881</v>
+        <v>224.0882860002312</v>
       </c>
       <c r="H43" t="n">
-        <v>146.0570550168367</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J43" t="n">
         <v>164.8484282497937</v>
@@ -7573,7 +7573,7 @@
         <v>403.9760733218554</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935369</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7585,16 +7585,16 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q43" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.683032594801</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T43" t="n">
         <v>1830.770373008817</v>
@@ -7606,13 +7606,13 @@
         <v>1358.690929617555</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.127715425086</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X43" t="n">
-        <v>912.9921203715589</v>
+        <v>912.9921203715578</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.0534970725196</v>
+        <v>728.0534970725182</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398086</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529681</v>
+        <v>731.676415452969</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424561</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571328</v>
+        <v>90.7282765957134</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J44" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K44" t="n">
-        <v>607.2838383285447</v>
+        <v>614.8796301297557</v>
       </c>
       <c r="L44" t="n">
-        <v>1058.318051576954</v>
+        <v>1065.913843378165</v>
       </c>
       <c r="M44" t="n">
-        <v>2036.868354406782</v>
+        <v>2044.464146207993</v>
       </c>
       <c r="N44" t="n">
-        <v>3016.620626633429</v>
+        <v>3024.21641843464</v>
       </c>
       <c r="O44" t="n">
-        <v>3519.593097512766</v>
+        <v>3527.188889313977</v>
       </c>
       <c r="P44" t="n">
-        <v>3914.367463869944</v>
+        <v>3921.963255671155</v>
       </c>
       <c r="Q44" t="n">
-        <v>4162.653825625626</v>
+        <v>4170.249617426837</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702265</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777562</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360973</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J45" t="n">
         <v>178.2626031702901</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.2589880867706</v>
+        <v>728.0534970725181</v>
       </c>
       <c r="C46" t="n">
-        <v>449.1767610033545</v>
+        <v>613.5678419565434</v>
       </c>
       <c r="D46" t="n">
-        <v>334.9140774355095</v>
+        <v>499.3051583886984</v>
       </c>
       <c r="E46" t="n">
-        <v>222.8549396976072</v>
+        <v>499.3051583886984</v>
       </c>
       <c r="F46" t="n">
-        <v>111.8189480441876</v>
+        <v>388.2691667352786</v>
       </c>
       <c r="G46" t="n">
-        <v>84.58533367967276</v>
+        <v>256.4202859544883</v>
       </c>
       <c r="H46" t="n">
-        <v>84.58533367967276</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L46" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
@@ -7819,37 +7819,37 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O46" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q46" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S46" t="n">
-        <v>2016.683032594801</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T46" t="n">
-        <v>1830.770373008817</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U46" t="n">
-        <v>1577.521461978952</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V46" t="n">
-        <v>1358.690929617556</v>
+        <v>1358.690929617554</v>
       </c>
       <c r="W46" t="n">
-        <v>1105.127715425086</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X46" t="n">
-        <v>912.9921203715592</v>
+        <v>912.9921203715576</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.0534970725196</v>
+        <v>728.0534970725181</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>267.923369937247</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>196.0806254639762</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,16 +8690,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>251.1867816683982</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>142.1686942807564</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9173,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>132.9990175570125</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>161.8544041422902</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>170.1140909277309</v>
       </c>
       <c r="R29" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.2173930448432</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,25 +10586,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>222.3730154186948</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>13.77581908803157</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,16 +10832,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>222.373015418694</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>13.77581908803248</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>27.35822683245399</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>125.606240999291</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>7.672516970920185</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>7.672516970917826</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23464,13 +23464,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>3.851839648530813</v>
+        <v>121.6028919494173</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>16.14213605696612</v>
+        <v>16.14213605696659</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>144.7917070300921</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>76.4677038784148</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>92.48912964370432</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>79.49333409173127</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>58.19598621064665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>16.14213605696676</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>105.07376194517</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>85.94402852737819</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>160.8971509712873</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>68.74591257129049</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>140.6325878592961</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>82.15053189888864</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>110.9893814919051</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>52.82153840677255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>131.751404812582</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D40" t="n">
-        <v>30.99576533107434</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605233</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>30.99576533107627</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321665</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605233</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>49.62711341149021</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>32.00867995471457</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>18.41060624776654</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>103.5691137521133</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379227</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636297</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>851565.5975799931</v>
+        <v>851565.5975799932</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516045</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516047</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516049</v>
-      </c>
       <c r="E2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="F2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="G2" t="n">
         <v>575768.5909861258</v>
       </c>
-      <c r="F2" t="n">
-        <v>575768.5909861254</v>
-      </c>
-      <c r="G2" t="n">
-        <v>575768.5909861255</v>
-      </c>
       <c r="H2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="I2" t="n">
-        <v>575768.590986126</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="J2" t="n">
         <v>575768.5909861255</v>
       </c>
       <c r="K2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="L2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="M2" t="n">
-        <v>590493.1516844323</v>
+        <v>590493.1516844325</v>
       </c>
       <c r="N2" t="n">
+        <v>590493.151684433</v>
+      </c>
+      <c r="O2" t="n">
         <v>590493.1516844325</v>
       </c>
-      <c r="O2" t="n">
-        <v>590493.1516844326</v>
-      </c>
       <c r="P2" t="n">
-        <v>590493.1516844326</v>
+        <v>590493.1516844325</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.142839427</v>
+        <v>507203.1428394269</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.2821741802</v>
+        <v>78665.28217418035</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
-        <v>1.654802016018974e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>157829.4001410734</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022164</v>
+        <v>18289.94367022167</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26421,19 +26421,19 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
+        <v>25090.72367499379</v>
+      </c>
+      <c r="G4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="G4" t="n">
-        <v>25090.72367499378</v>
-      </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499382</v>
@@ -26445,19 +26445,19 @@
         <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="M4" t="n">
+        <v>53328.24410000352</v>
+      </c>
+      <c r="N4" t="n">
+        <v>53328.24410000349</v>
+      </c>
+      <c r="O4" t="n">
+        <v>53328.2441000035</v>
+      </c>
+      <c r="P4" t="n">
         <v>53328.24410000353</v>
-      </c>
-      <c r="N4" t="n">
-        <v>53328.24410000355</v>
-      </c>
-      <c r="O4" t="n">
-        <v>53328.24410000356</v>
-      </c>
-      <c r="P4" t="n">
-        <v>53328.24410000355</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133434</v>
+        <v>77204.68871133433</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26503,13 +26503,13 @@
         <v>91026.04982123678</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.0498212368</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.0498212368</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.0498212368</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-212395.4572447121</v>
+        <v>-212395.4572447117</v>
       </c>
       <c r="C6" t="n">
         <v>232666.4169862835</v>
       </c>
       <c r="D6" t="n">
-        <v>311331.6991604639</v>
+        <v>311331.6991604638</v>
       </c>
       <c r="E6" t="n">
-        <v>-273083.0649359885</v>
+        <v>-273150.2604262141</v>
       </c>
       <c r="F6" t="n">
-        <v>454294.3490574179</v>
+        <v>454227.1535671923</v>
       </c>
       <c r="G6" t="n">
-        <v>454294.3490574181</v>
+        <v>454227.1535671924</v>
       </c>
       <c r="H6" t="n">
-        <v>454294.349057418</v>
+        <v>454227.1535671924</v>
       </c>
       <c r="I6" t="n">
-        <v>454294.3490574185</v>
+        <v>454227.1535671923</v>
       </c>
       <c r="J6" t="n">
-        <v>296464.9489163446</v>
+        <v>296397.7534261188</v>
       </c>
       <c r="K6" t="n">
-        <v>436004.4053871967</v>
+        <v>435937.2098969706</v>
       </c>
       <c r="L6" t="n">
-        <v>454294.3490574184</v>
+        <v>454227.1535671923</v>
       </c>
       <c r="M6" t="n">
-        <v>322290.0665750171</v>
+        <v>322273.6454320271</v>
       </c>
       <c r="N6" t="n">
-        <v>446138.8577631923</v>
+        <v>446122.4366202024</v>
       </c>
       <c r="O6" t="n">
-        <v>446138.8577631923</v>
+        <v>446122.436620202</v>
       </c>
       <c r="P6" t="n">
-        <v>446138.8577631924</v>
+        <v>446122.436620202</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688981</v>
+        <v>316.568578968898</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877033</v>
+        <v>603.2219356877032</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26823,13 +26823,13 @@
         <v>1057.31667099591</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="O4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="P4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.068502520023717e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688981</v>
+        <v>316.568578968898</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818857</v>
+        <v>61.17508524818868</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877033</v>
+        <v>603.2219356877032</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685229</v>
+        <v>71.06533706685241</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877033</v>
+        <v>603.2219356877032</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685229</v>
+        <v>71.06533706685241</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.068502520023717e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877033</v>
+        <v>603.2219356877032</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685229</v>
+        <v>71.06533706685241</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>326.4414032841481</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.4125322208644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866708</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>105.5609408648026</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>196.8729816766441</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015518</v>
+        <v>1.02687602800026</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,10 +27512,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8965846405547</v>
       </c>
       <c r="V3" t="n">
-        <v>2.509280638532033</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4201179865476</v>
+        <v>30.93540806985746</v>
       </c>
       <c r="H4" t="n">
         <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.99928112255606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.61489442328541</v>
+        <v>38.36018782739079</v>
       </c>
       <c r="R4" t="n">
         <v>151.625388236511</v>
@@ -27588,7 +27588,7 @@
         <v>214.068041219212</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5064544755703</v>
       </c>
       <c r="U4" t="n">
         <v>286.2878914634775</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>388.0106513663366</v>
+        <v>349.146669509338</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>146.4060253743883</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>162.3530099323433</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>13.56451050873931</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>10.49504793044702</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-4.240443677685121e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-4.824153670053002e-15</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604538</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604533</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604533</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604538</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604575</v>
       </c>
     </row>
   </sheetData>
@@ -31045,7 +31045,7 @@
         <v>13.033398831619</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954149</v>
+        <v>49.06335734954148</v>
       </c>
       <c r="J2" t="n">
         <v>108.0135173035639</v>
@@ -31057,28 +31057,28 @@
         <v>200.8317428166206</v>
       </c>
       <c r="M2" t="n">
-        <v>223.464010017578</v>
+        <v>223.4640100175779</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240921</v>
+        <v>227.079891324092</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497324</v>
+        <v>214.4251021497323</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847287</v>
+        <v>183.0068637847286</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944828</v>
+        <v>137.4305331944827</v>
       </c>
       <c r="R2" t="n">
-        <v>79.9423155724826</v>
+        <v>79.94231557248258</v>
       </c>
       <c r="S2" t="n">
         <v>29.00022710855785</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100908</v>
+        <v>5.570970671100907</v>
       </c>
       <c r="U2" t="n">
         <v>0.1018110002714043</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859317</v>
+        <v>0.6809210943859316</v>
       </c>
       <c r="H3" t="n">
         <v>6.576264253674657</v>
@@ -31127,7 +31127,7 @@
         <v>23.44399381986651</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933052</v>
+        <v>64.33211093933051</v>
       </c>
       <c r="K3" t="n">
         <v>109.9538242631879</v>
@@ -31148,10 +31148,10 @@
         <v>130.0260640674329</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915858</v>
+        <v>86.91898039915857</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248795</v>
+        <v>42.27683777248794</v>
       </c>
       <c r="S3" t="n">
         <v>12.64781067861587</v>
@@ -31160,7 +31160,7 @@
         <v>2.744589849739785</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0447974404201271</v>
+        <v>0.04479744042012709</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,34 +31197,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111276</v>
+        <v>0.5708613719111275</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173484</v>
+        <v>5.075476561173483</v>
       </c>
       <c r="I4" t="n">
         <v>17.16735834801828</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411672</v>
+        <v>40.35989899411671</v>
       </c>
       <c r="K4" t="n">
-        <v>66.3237121184019</v>
+        <v>66.32371211840189</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667802</v>
+        <v>84.871517056678</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148701</v>
+        <v>89.485114871487</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890926</v>
+        <v>87.35735884890923</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009522014</v>
+        <v>80.68866009522013</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823308</v>
+        <v>69.04308810823306</v>
       </c>
       <c r="Q4" t="n">
         <v>47.8018554243036</v>
@@ -31233,13 +31233,13 @@
         <v>25.66800314065851</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760284</v>
+        <v>9.948556817760283</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711181</v>
+        <v>2.43913495271118</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333427</v>
+        <v>0.03113789301333426</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895137</v>
+        <v>96.06422794895134</v>
       </c>
       <c r="K2" t="n">
         <v>265.9398243483549</v>
@@ -34711,13 +34711,13 @@
         <v>435.0137521394853</v>
       </c>
       <c r="O2" t="n">
-        <v>365.127071990791</v>
+        <v>365.1270719907909</v>
       </c>
       <c r="P2" t="n">
         <v>273.5725762009417</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.439833979938</v>
+        <v>127.4398339799379</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307266</v>
+        <v>63.58551961307265</v>
       </c>
       <c r="K3" t="n">
         <v>236.5776223014075</v>
@@ -34784,19 +34784,19 @@
         <v>380.1324513901444</v>
       </c>
       <c r="M3" t="n">
-        <v>298.3192115532781</v>
+        <v>496.100905366031</v>
       </c>
       <c r="N3" t="n">
         <v>525.0968902250946</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636606</v>
+        <v>215.4928310509073</v>
       </c>
       <c r="P3" t="n">
         <v>314.5144252930398</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489862</v>
+        <v>157.0144940489861</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251905</v>
+        <v>44.05422029251903</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169942</v>
+        <v>112.4615423169941</v>
       </c>
       <c r="M4" t="n">
         <v>129.0689918333276</v>
@@ -34872,7 +34872,7 @@
         <v>105.2737880092598</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312657</v>
+        <v>66.32164737312655</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,16 +35410,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>790.107897498625</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O11" t="n">
         <v>508.0530008882191</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
@@ -35650,7 +35650,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>631.8075074371754</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35665,10 +35665,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>332.9556952494689</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
@@ -35893,10 +35893,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35905,7 +35905,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36358,28 +36358,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>671.9201333872393</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>352.6414051110027</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>420.9083957314504</v>
       </c>
       <c r="R29" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,16 +37081,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>427.0116978485627</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>677.963129811027</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>264.5701238917511</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911201</v>
+        <v>81.07383289911199</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303654</v>
@@ -37473,7 +37473,7 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N37" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O37" t="n">
         <v>337.8485465086856</v>
@@ -37482,7 +37482,7 @@
         <v>270.4524874311562</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37552,16 +37552,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>621.1350016380659</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>264.570123891752</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911205</v>
+        <v>81.07383289911198</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L40" t="n">
-        <v>355.2527884562439</v>
+        <v>355.2527884562438</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N40" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O40" t="n">
         <v>337.8485465086856</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>218.1452278011666</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>677.9080764122025</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597709</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911205</v>
+        <v>81.07383289911198</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L43" t="n">
         <v>355.2527884562439</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N43" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O43" t="n">
         <v>337.8485465086856</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>344.8638035263207</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>67.28571551314261</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911205</v>
+        <v>81.07383289911198</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L46" t="n">
         <v>355.2527884562439</v>
       </c>
       <c r="M46" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N46" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O46" t="n">
         <v>337.8485465086856</v>
       </c>
       <c r="P46" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
